--- a/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 13,44</t>
+          <t>2,7; 12,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,58</t>
+          <t>5,48; 15,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,37; 24,41</t>
+          <t>10,49; 26,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,38; 68,77</t>
+          <t>48,78; 68,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,24; 61,49</t>
+          <t>44,61; 62,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,23; 72,35</t>
+          <t>53,56; 72,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,93; 73,71</t>
+          <t>56,31; 73,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,31; 96,17</t>
+          <t>90,19; 96,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 35,2</t>
+          <t>24,2; 35,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 42,75</t>
+          <t>29,43; 42,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,27; 47,3</t>
+          <t>34,06; 47,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,36; 83,69</t>
+          <t>72,22; 83,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,61</t>
+          <t>3,73; 7,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,91</t>
+          <t>5,25; 9,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,69</t>
+          <t>11,96; 17,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,1; 68,15</t>
+          <t>59,39; 68,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,13; 58,08</t>
+          <t>49,94; 58,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,94; 63,31</t>
+          <t>55,14; 63,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,45; 65,39</t>
+          <t>57,13; 65,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,74; 95,04</t>
+          <t>90,96; 95,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,24; 32,34</t>
+          <t>27,17; 32,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 36,08</t>
+          <t>30,49; 35,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,51; 41,08</t>
+          <t>35,06; 40,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,6; 81,88</t>
+          <t>76,72; 82,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,28</t>
+          <t>5,19; 8,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,89</t>
+          <t>6,34; 9,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 14,88</t>
+          <t>10,54; 14,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,03; 65,73</t>
+          <t>49,71; 65,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,3; 60,98</t>
+          <t>54,79; 61,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,25; 58,32</t>
+          <t>52,26; 58,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,9; 57,09</t>
+          <t>50,56; 56,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,78; 93,59</t>
+          <t>89,68; 93,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,12; 34,48</t>
+          <t>30,08; 34,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,47; 33,94</t>
+          <t>29,74; 33,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,12; 35,47</t>
+          <t>31,32; 35,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,42; 79,3</t>
+          <t>70,04; 79,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,36</t>
+          <t>8,27; 13,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 13,14</t>
+          <t>8,48; 13,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,13</t>
+          <t>11,02; 16,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,66; 71,64</t>
+          <t>63,43; 71,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,29; 57,01</t>
+          <t>49,15; 56,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,01; 60,47</t>
+          <t>52,44; 59,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 59,79</t>
+          <t>52,7; 59,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,9; 95,3</t>
+          <t>89,73; 94,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,16; 34,52</t>
+          <t>29,43; 34,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,51; 36,52</t>
+          <t>31,34; 36,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,65; 37,82</t>
+          <t>32,84; 37,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>78,15; 85,19</t>
+          <t>78,36; 85,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,84</t>
+          <t>8,85; 13,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,26</t>
+          <t>9,04; 13,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 19,37</t>
+          <t>14,4; 19,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,92; 69,49</t>
+          <t>63,2; 69,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,64; 54,79</t>
+          <t>48,13; 54,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,28; 53,44</t>
+          <t>47,09; 53,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,45; 55,11</t>
+          <t>48,56; 54,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,65; 89,13</t>
+          <t>84,61; 89,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,26; 34,37</t>
+          <t>30,15; 34,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,61; 34,04</t>
+          <t>29,56; 33,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 37,25</t>
+          <t>32,96; 37,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,69; 79,6</t>
+          <t>75,72; 79,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,5</t>
+          <t>7,45; 9,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,41</t>
+          <t>8,32; 10,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 15,71</t>
+          <t>13,12; 15,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,28; 66,7</t>
+          <t>60,48; 66,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,43; 55,94</t>
+          <t>52,28; 55,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,34; 56,68</t>
+          <t>53,39; 56,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,58; 57,14</t>
+          <t>53,72; 57,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,68; 92,03</t>
+          <t>89,69; 92,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,79</t>
+          <t>30,48; 32,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,51; 33,74</t>
+          <t>31,57; 33,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,09; 36,35</t>
+          <t>34,04; 36,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>76,46; 79,79</t>
+          <t>76,26; 79,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,19</t>
+          <t>2,79; 12,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 15,56</t>
+          <t>5,28; 15,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 26,04</t>
+          <t>10,7; 24,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,61; 62,17</t>
+          <t>44,45; 61,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,56; 72,42</t>
+          <t>53,23; 71,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,31; 73,63</t>
+          <t>55,56; 73,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,2; 35,58</t>
+          <t>24,06; 35,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,43; 42,59</t>
+          <t>29,27; 42,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,06; 47,19</t>
+          <t>34,39; 47,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,42</t>
+          <t>3,81; 7,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,94</t>
+          <t>5,42; 10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 17,91</t>
+          <t>11,62; 17,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,94; 58,21</t>
+          <t>50,2; 57,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,14; 63,32</t>
+          <t>55,16; 63,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,13; 65,31</t>
+          <t>57,1; 65,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 32,46</t>
+          <t>27,03; 32,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,49; 35,92</t>
+          <t>30,58; 36,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,06; 40,85</t>
+          <t>35,01; 41,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,4</t>
+          <t>5,21; 8,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,85</t>
+          <t>6,35; 9,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 14,53</t>
+          <t>10,36; 14,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,79; 61,4</t>
+          <t>54,65; 61,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,26; 58,48</t>
+          <t>52,05; 58,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,56; 56,88</t>
+          <t>50,6; 56,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,08; 34,43</t>
+          <t>30,18; 34,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,74; 33,94</t>
+          <t>29,77; 33,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,32; 35,25</t>
+          <t>31,24; 35,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,29</t>
+          <t>8,29; 13,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,2</t>
+          <t>8,46; 13,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,28</t>
+          <t>11,21; 16,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 56,6</t>
+          <t>49,62; 57,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,44; 59,88</t>
+          <t>53,26; 60,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,7; 59,7</t>
+          <t>52,72; 59,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 34,67</t>
+          <t>29,34; 34,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 36,31</t>
+          <t>31,34; 36,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,84; 37,94</t>
+          <t>32,88; 37,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,0</t>
+          <t>8,76; 12,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,13</t>
+          <t>9,09; 13,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,4; 19,27</t>
+          <t>14,59; 19,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,13; 54,43</t>
+          <t>48,46; 54,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,09; 53,7</t>
+          <t>47,48; 53,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,56; 54,85</t>
+          <t>48,53; 54,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,15; 34,47</t>
+          <t>30,06; 34,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,56; 33,77</t>
+          <t>29,62; 34,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,96; 37,23</t>
+          <t>32,9; 37,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,46</t>
+          <t>7,46; 9,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,31</t>
+          <t>8,25; 10,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,12; 15,67</t>
+          <t>13,18; 15,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,28; 55,73</t>
+          <t>52,27; 55,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,72; 57,06</t>
+          <t>53,6; 57,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,48; 32,88</t>
+          <t>30,46; 32,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,57; 33,86</t>
+          <t>31,54; 33,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 36,38</t>
+          <t>34,04; 36,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 12,49</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,25</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 24,4</t>
+          <t>0; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,78; 68,85</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,45; 61,11</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 71,76</t>
+          <t>0; 1,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,56; 73,69</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,19; 96,28</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,06; 35,86</t>
+          <t>0; 0,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,27; 42,62</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,39; 47,55</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,22; 83,62</t>
+          <t>0; 0,53</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,71</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,22</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 17,72</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,39; 68,09</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,2; 57,98</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,16; 63,33</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,1; 65,03</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,96; 95,13</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,03; 32,31</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,58; 36,28</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,01; 41,09</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,72; 82,44</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,49</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,75</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,72</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,71; 65,7</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,65; 61,22</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,05; 58,61</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,6; 56,98</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,68; 93,57</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,18; 34,59</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 33,89</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,24; 35,49</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,04; 79,43</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,54</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,4</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,6</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,43; 71,79</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,62; 57,05</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,26; 60,31</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,72; 59,93</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,73; 94,92</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 34,34</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 36,45</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 37,97</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>78,36; 85,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,96</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,31</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,59; 19,21</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,2; 69,55</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,46; 54,66</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,48; 53,79</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,53; 54,9</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,61; 89,03</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,06; 34,31</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,62; 34,0</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,9; 37,29</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,72; 79,63</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,49</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,45</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,18; 15,7</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,48; 66,52</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,27; 55,84</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,39; 56,75</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,6; 57,01</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,69; 92,04</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,46; 32,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,54; 33,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 36,52</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>76,26; 79,87</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,13</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1670</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1937</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1122</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1325</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2063</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2374</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1213</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2054</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1665</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2108</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2069</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1819</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1929</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1768</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1346</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1910</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1512</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1576</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>